--- a/05_Test/testcase_restaurant_list.xlsx
+++ b/05_Test/testcase_restaurant_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\documents\NMCNPM\ISE_NTMT_01\05_Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace_GITHUB\ISE_NTMT_01\05_Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B13716-9DD4-4AF0-9391-11A8D9DC5B54}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B395B42-3B98-4CD3-9290-8408E4224C80}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8070" xr2:uid="{E0F40B1F-EE1F-4F18-AF6E-C5B373642FE2}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>STT</t>
   </si>
@@ -65,31 +65,19 @@
     <t>Không có nhà hàng nào được xem gần đây</t>
   </si>
   <si>
-    <t>Vào tag mark, chưa đăng nhập</t>
-  </si>
-  <si>
-    <t>Thông báo phải đăng nhập mới xem được mark của họ</t>
-  </si>
-  <si>
-    <t>Vào tag mark, đã đăng nhập</t>
-  </si>
-  <si>
-    <t>Hiển thị ra danh sách mark các nhà hàng của customer</t>
-  </si>
-  <si>
     <t>Vào restaurant list -&gt; list, có internet</t>
   </si>
   <si>
     <t>Hiển thị danh sách nhà hàng</t>
   </si>
   <si>
-    <t>Hhieenrthij được dánh sách trong 3s</t>
-  </si>
-  <si>
     <t>Trong danh sách nhà hàng, nháy vào một item nhà hàng</t>
   </si>
   <si>
     <t>Chuyển đến màn hình thông tin của nhà hàng đó</t>
+  </si>
+  <si>
+    <t>Hiển thị  được dánh sách trong 3s</t>
   </si>
 </sst>
 </file>
@@ -327,9 +315,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -348,6 +333,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -663,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE7B28E-24EA-40B3-9074-9BC8F3F57FDD}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,117 +665,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>9</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
